--- a/medicine/Pharmacie/Autorécepteur/Autorécepteur.xlsx
+++ b/medicine/Pharmacie/Autorécepteur/Autorécepteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autor%C3%A9cepteur</t>
+          <t>Autorécepteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les autorécepteurs sont des récepteurs présents sur l'extrémité présynaptique des terminaisons nerveuses. Ils sont impliqués dans la boucle retour lors de la transduction du signal nerveux. Un autorécepteur donné sera uniquement sensibles aux neurotransmetteurs ou hormones libérés par le neurone sur lequel il est situé.
